--- a/WMM_All_configurations/MCBXFB_02_Inner_Collar_600_20210510/Roxie_vs_MM_NormalMCBXFB_02_Inner_Collar_600_20210510.xlsx
+++ b/WMM_All_configurations/MCBXFB_02_Inner_Collar_600_20210510/Roxie_vs_MM_NormalMCBXFB_02_Inner_Collar_600_20210510.xlsx
@@ -617,6 +617,51 @@
       <c r="Q2">
         <v>0.2905807857671765</v>
       </c>
+      <c r="R2">
+        <v>-68.14581589863525</v>
+      </c>
+      <c r="S2">
+        <v>-3.020898060584047E-12</v>
+      </c>
+      <c r="T2">
+        <v>-0.3926034062378131</v>
+      </c>
+      <c r="U2">
+        <v>-5.170781728563633E-13</v>
+      </c>
+      <c r="V2">
+        <v>-0.0001764436175133731</v>
+      </c>
+      <c r="W2">
+        <v>2.961904231906723E-13</v>
+      </c>
+      <c r="X2">
+        <v>-7.408153680025089E-08</v>
+      </c>
+      <c r="Y2">
+        <v>2.720427668334274E-13</v>
+      </c>
+      <c r="Z2">
+        <v>-3.257876712706223E-11</v>
+      </c>
+      <c r="AA2">
+        <v>-1.047500611000503E-12</v>
+      </c>
+      <c r="AB2">
+        <v>8.878655506429485E-14</v>
+      </c>
+      <c r="AC2">
+        <v>8.354821097534107E-13</v>
+      </c>
+      <c r="AD2">
+        <v>-6.702843280855789E-13</v>
+      </c>
+      <c r="AE2">
+        <v>1.265817733494844E-12</v>
+      </c>
+      <c r="AF2">
+        <v>1.445312900633305E-13</v>
+      </c>
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="1">
@@ -671,49 +716,49 @@
         <v>0.2193344370488465</v>
       </c>
       <c r="R3">
-        <v>-155.2967770661369</v>
+        <v>3820.53361600509</v>
       </c>
       <c r="S3">
-        <v>-2.116667174537756E-11</v>
+        <v>-2.342903581552818E-12</v>
       </c>
       <c r="T3">
-        <v>6110.589996801313</v>
+        <v>-13.43056296579693</v>
       </c>
       <c r="U3">
-        <v>-1.930355102693977E-11</v>
+        <v>1.90026194601375E-12</v>
       </c>
       <c r="V3">
-        <v>-476.2957459097542</v>
+        <v>-56.58381757617198</v>
       </c>
       <c r="W3">
-        <v>-7.481416657415698E-12</v>
+        <v>3.434122951293175E-13</v>
       </c>
       <c r="X3">
-        <v>-81.94514303077051</v>
+        <v>-10.71440132254808</v>
       </c>
       <c r="Y3">
-        <v>-6.284689954729018E-13</v>
+        <v>-7.600284009294592E-13</v>
       </c>
       <c r="Z3">
-        <v>14.27561208430784</v>
+        <v>-1.451650138641211</v>
       </c>
       <c r="AA3">
-        <v>1.18928448060898E-11</v>
+        <v>7.681002117623181E-13</v>
       </c>
       <c r="AB3">
-        <v>1.104567898005908</v>
+        <v>-0.2105746429917907</v>
       </c>
       <c r="AC3">
-        <v>1.4674457049162E-11</v>
+        <v>7.950523979024575E-13</v>
       </c>
       <c r="AD3">
-        <v>-0.2901586217443245</v>
+        <v>-0.8379425932359311</v>
       </c>
       <c r="AE3">
-        <v>1.399895213979719E-11</v>
+        <v>-3.957146984635534E-14</v>
       </c>
       <c r="AF3">
-        <v>-0.07900385778879203</v>
+        <v>0.001623900910231786</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -769,49 +814,49 @@
         <v>0.2814318171014633</v>
       </c>
       <c r="R4">
-        <v>10000</v>
+        <v>10041.22891042461</v>
       </c>
       <c r="S4">
-        <v>-1.361064492927354E-13</v>
+        <v>-2.370740118676887E-13</v>
       </c>
       <c r="T4">
-        <v>-15.44569647566531</v>
+        <v>-15.38491883850872</v>
       </c>
       <c r="U4">
-        <v>2.050395588587869E-12</v>
+        <v>6.826304500105208E-13</v>
       </c>
       <c r="V4">
-        <v>0.2573915128266603</v>
+        <v>0.2337075053410519</v>
       </c>
       <c r="W4">
-        <v>2.286573963078398E-12</v>
+        <v>1.08336545256439E-13</v>
       </c>
       <c r="X4">
-        <v>2.22076240709662</v>
+        <v>2.221544324665985</v>
       </c>
       <c r="Y4">
-        <v>-2.102900982977703E-12</v>
+        <v>-6.650674399728485E-13</v>
       </c>
       <c r="Z4">
-        <v>3.245984176456485</v>
+        <v>3.229782662952247</v>
       </c>
       <c r="AA4">
-        <v>8.68628626228722E-13</v>
+        <v>-5.344701741907745E-13</v>
       </c>
       <c r="AB4">
-        <v>3.882282426276673</v>
+        <v>3.866729056542326</v>
       </c>
       <c r="AC4">
-        <v>-8.865979381443299E-13</v>
+        <v>1.348811853387962E-12</v>
       </c>
       <c r="AD4">
-        <v>-2.132102613282187</v>
+        <v>-2.123102370873716</v>
       </c>
       <c r="AE4">
-        <v>-4.138647806281467E-12</v>
+        <v>-9.855560844507763E-14</v>
       </c>
       <c r="AF4">
-        <v>0.4072932150563414</v>
+        <v>0.4053785506600061</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -867,49 +912,49 @@
         <v>0.3088349462494405</v>
       </c>
       <c r="R5">
-        <v>-59.09785251909443</v>
+        <v>3868.987338277233</v>
       </c>
       <c r="S5">
-        <v>-4.209964923143585E-12</v>
+        <v>-5.612616372746389E-13</v>
       </c>
       <c r="T5">
-        <v>8768.742561472809</v>
+        <v>-151.6735275080437</v>
       </c>
       <c r="U5">
-        <v>-4.055747131617732E-11</v>
+        <v>-1.22400683800898E-12</v>
       </c>
       <c r="V5">
-        <v>-1261.058899130722</v>
+        <v>-154.2990631783649</v>
       </c>
       <c r="W5">
-        <v>-4.675972545050516E-12</v>
+        <v>2.248537369836055E-13</v>
       </c>
       <c r="X5">
-        <v>-334.6590040124531</v>
+        <v>-45.0957393065293</v>
       </c>
       <c r="Y5">
-        <v>-2.771431283030814E-12</v>
+        <v>-9.179861597414763E-13</v>
       </c>
       <c r="Z5">
-        <v>-45.01231168000137</v>
+        <v>-13.75208624883947</v>
       </c>
       <c r="AA5">
-        <v>2.026036232329836E-11</v>
+        <v>-8.765724578276022E-14</v>
       </c>
       <c r="AB5">
-        <v>-24.24734269143748</v>
+        <v>-4.773636234195753</v>
       </c>
       <c r="AC5">
-        <v>2.946908251060466E-12</v>
+        <v>4.672726226891419E-13</v>
       </c>
       <c r="AD5">
-        <v>-10.25716705343176</v>
+        <v>-2.544962765292205</v>
       </c>
       <c r="AE5">
-        <v>1.75294203260425E-12</v>
+        <v>1.312381801705288E-12</v>
       </c>
       <c r="AF5">
-        <v>-3.708766717600412</v>
+        <v>-0.6290909285741511</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -963,6 +1008,51 @@
       </c>
       <c r="Q6">
         <v>0.2660522094574346</v>
+      </c>
+      <c r="R6">
+        <v>-65.15495286770917</v>
+      </c>
+      <c r="S6">
+        <v>6.995800346651404E-13</v>
+      </c>
+      <c r="T6">
+        <v>-1.86156742206555</v>
+      </c>
+      <c r="U6">
+        <v>-9.69570051032105E-13</v>
+      </c>
+      <c r="V6">
+        <v>-0.01064381918407512</v>
+      </c>
+      <c r="W6">
+        <v>1.349063820378472E-12</v>
+      </c>
+      <c r="X6">
+        <v>-0.0001093483097323885</v>
+      </c>
+      <c r="Y6">
+        <v>-8.286697816841414E-13</v>
+      </c>
+      <c r="Z6">
+        <v>-1.343989007620402E-06</v>
+      </c>
+      <c r="AA6">
+        <v>1.381745549908545E-12</v>
+      </c>
+      <c r="AB6">
+        <v>-1.826358344427081E-08</v>
+      </c>
+      <c r="AC6">
+        <v>4.18300106686472E-13</v>
+      </c>
+      <c r="AD6">
+        <v>-2.639729641896818E-10</v>
+      </c>
+      <c r="AE6">
+        <v>-6.315290763915076E-13</v>
+      </c>
+      <c r="AF6">
+        <v>-6.550721765202965E-12</v>
       </c>
     </row>
   </sheetData>

--- a/WMM_All_configurations/MCBXFB_02_Inner_Collar_600_20210510/Roxie_vs_MM_NormalMCBXFB_02_Inner_Collar_600_20210510.xlsx
+++ b/WMM_All_configurations/MCBXFB_02_Inner_Collar_600_20210510/Roxie_vs_MM_NormalMCBXFB_02_Inner_Collar_600_20210510.xlsx
@@ -576,91 +576,91 @@
         <v>9999.758020781341</v>
       </c>
       <c r="D2">
-        <v>-1.564972941969824</v>
+        <v>-1.564935072876852</v>
       </c>
       <c r="E2">
-        <v>-8.200184975849258</v>
+        <v>-8.199986548413925</v>
       </c>
       <c r="F2">
-        <v>-0.6297552964385451</v>
+        <v>-0.6297400576690872</v>
       </c>
       <c r="G2">
-        <v>-8.176318024184518</v>
+        <v>-8.17612017427982</v>
       </c>
       <c r="H2">
-        <v>-0.4424809423894842</v>
+        <v>-0.4424702352702129</v>
       </c>
       <c r="I2">
-        <v>0.5739061684841895</v>
+        <v>0.5738922811475664</v>
       </c>
       <c r="J2">
-        <v>-0.0985087556054835</v>
+        <v>-0.09850637189831214</v>
       </c>
       <c r="K2">
-        <v>1.506140591793639</v>
+        <v>1.50610414632128</v>
       </c>
       <c r="L2">
-        <v>-0.1663963047743804</v>
+        <v>-0.1663922783295985</v>
       </c>
       <c r="M2">
-        <v>3.621302013563909</v>
+        <v>3.621214385580732</v>
       </c>
       <c r="N2">
-        <v>0.1506404576372947</v>
+        <v>0.1506368124512705</v>
       </c>
       <c r="O2">
-        <v>-2.235920968968993</v>
+        <v>-2.235866864328088</v>
       </c>
       <c r="P2">
-        <v>0.004029146996002979</v>
+        <v>0.004029049499019248</v>
       </c>
       <c r="Q2">
-        <v>0.2905807857671765</v>
+        <v>0.2905737543160268</v>
       </c>
       <c r="R2">
         <v>-68.14581589863525</v>
       </c>
       <c r="S2">
-        <v>-3.020898060584047E-12</v>
+        <v>1.805235046118076E-14</v>
       </c>
       <c r="T2">
-        <v>-0.3926034062378131</v>
+        <v>0.003126807516409349</v>
       </c>
       <c r="U2">
-        <v>-5.170781728563633E-13</v>
+        <v>7.039645711855896E-15</v>
       </c>
       <c r="V2">
-        <v>-0.0001764436175133731</v>
+        <v>1.51179444321302E-06</v>
       </c>
       <c r="W2">
-        <v>2.961904231906723E-13</v>
+        <v>4.516805164138704E-16</v>
       </c>
       <c r="X2">
-        <v>-7.408153680025089E-08</v>
+        <v>6.612464591541776E-10</v>
       </c>
       <c r="Y2">
-        <v>2.720427668334274E-13</v>
+        <v>-5.057239637569376E-15</v>
       </c>
       <c r="Z2">
-        <v>-3.257876712706223E-11</v>
+        <v>2.992200006333037E-13</v>
       </c>
       <c r="AA2">
-        <v>-1.047500611000503E-12</v>
+        <v>4.943085455277455E-15</v>
       </c>
       <c r="AB2">
-        <v>8.878655506429485E-14</v>
+        <v>1.959044141262897E-15</v>
       </c>
       <c r="AC2">
-        <v>8.354821097534107E-13</v>
+        <v>-5.154756110249112E-15</v>
       </c>
       <c r="AD2">
-        <v>-6.702843280855789E-13</v>
+        <v>4.344492520231787E-15</v>
       </c>
       <c r="AE2">
-        <v>1.265817733494844E-12</v>
+        <v>-6.181416157384995E-15</v>
       </c>
       <c r="AF2">
-        <v>1.445312900633305E-13</v>
+        <v>-3.979936149423469E-15</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -674,91 +674,91 @@
         <v>-0</v>
       </c>
       <c r="D3">
-        <v>-1.060048037237934</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-7.072214930518014</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>-0.9501628537536121</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>-7.970317429563383</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>-0.5244992604877635</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8900674201751986</v>
+        <v>-0</v>
       </c>
       <c r="J3">
-        <v>-0.1838480813413443</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1.595700584122785</v>
+        <v>-0</v>
       </c>
       <c r="L3">
-        <v>-0.2667332686596299</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>3.670561266735793</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.0919074956332295</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>-2.340185564448035</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>-0.03196484200922611</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.2193344370488465</v>
+        <v>-0</v>
       </c>
       <c r="R3">
         <v>3820.53361600509</v>
       </c>
       <c r="S3">
-        <v>-2.342903581552818E-12</v>
+        <v>-4.189548625442006E-13</v>
       </c>
       <c r="T3">
-        <v>-13.43056296579693</v>
+        <v>-5.203799431420012</v>
       </c>
       <c r="U3">
-        <v>1.90026194601375E-12</v>
+        <v>8.252193855213002E-13</v>
       </c>
       <c r="V3">
-        <v>-56.58381757617198</v>
+        <v>-4.251569256740288</v>
       </c>
       <c r="W3">
-        <v>3.434122951293175E-13</v>
+        <v>5.909948429956834E-14</v>
       </c>
       <c r="X3">
-        <v>-10.71440132254808</v>
+        <v>-4.784336059862343</v>
       </c>
       <c r="Y3">
-        <v>-7.600284009294592E-13</v>
+        <v>-1.297851081160947E-13</v>
       </c>
       <c r="Z3">
-        <v>-1.451650138641211</v>
+        <v>-1.026851324935374</v>
       </c>
       <c r="AA3">
-        <v>7.681002117623181E-13</v>
+        <v>4.548635128251667E-13</v>
       </c>
       <c r="AB3">
-        <v>-0.2105746429917907</v>
+        <v>0.06452760297695204</v>
       </c>
       <c r="AC3">
-        <v>7.950523979024575E-13</v>
+        <v>1.175149981962684E-13</v>
       </c>
       <c r="AD3">
-        <v>-0.8379425932359311</v>
+        <v>-0.770733972332224</v>
       </c>
       <c r="AE3">
-        <v>-3.957146984635534E-14</v>
+        <v>-7.160686513440348E-14</v>
       </c>
       <c r="AF3">
-        <v>0.001623900910231786</v>
+        <v>0.0181911175166546</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -772,7 +772,7 @@
         <v>10000</v>
       </c>
       <c r="D4">
-        <v>-0.7283936611272751</v>
+        <v>-0.728393661127275</v>
       </c>
       <c r="E4">
         <v>-6.922494810519019</v>
@@ -781,82 +781,82 @@
         <v>-1.070278950901623</v>
       </c>
       <c r="G4">
-        <v>-7.472041481701973</v>
+        <v>-7.472041481701976</v>
       </c>
       <c r="H4">
         <v>-0.8348212400204715</v>
       </c>
       <c r="I4">
-        <v>0.9652970492839156</v>
+        <v>0.9652970492839157</v>
       </c>
       <c r="J4">
-        <v>-0.3341443724708302</v>
+        <v>-0.3341443724708301</v>
       </c>
       <c r="K4">
         <v>1.489008224393758</v>
       </c>
       <c r="L4">
-        <v>-0.3097519796723862</v>
+        <v>-0.3097519796723859</v>
       </c>
       <c r="M4">
         <v>3.625061942370288</v>
       </c>
       <c r="N4">
-        <v>0.1410388165523524</v>
+        <v>0.1410388165523538</v>
       </c>
       <c r="O4">
-        <v>-2.301256192813478</v>
+        <v>-2.301256192813476</v>
       </c>
       <c r="P4">
-        <v>-0.004863033442012131</v>
+        <v>-0.004863033442009796</v>
       </c>
       <c r="Q4">
-        <v>0.2814318171014633</v>
+        <v>0.2814318171014626</v>
       </c>
       <c r="R4">
         <v>10041.22891042461</v>
       </c>
       <c r="S4">
-        <v>-2.370740118676887E-13</v>
+        <v>-2.384149687932638E-13</v>
       </c>
       <c r="T4">
-        <v>-15.38491883850872</v>
+        <v>-15.44801254906408</v>
       </c>
       <c r="U4">
-        <v>6.826304500105208E-13</v>
+        <v>6.8735768412049E-13</v>
       </c>
       <c r="V4">
-        <v>0.2337075053410519</v>
+        <v>0.2344585509142022</v>
       </c>
       <c r="W4">
-        <v>1.08336545256439E-13</v>
+        <v>1.085222597114864E-13</v>
       </c>
       <c r="X4">
-        <v>2.221544324665985</v>
+        <v>2.230757764957086</v>
       </c>
       <c r="Y4">
-        <v>-6.650674399728485E-13</v>
+        <v>-6.642445298631269E-13</v>
       </c>
       <c r="Z4">
-        <v>3.229782662952247</v>
+        <v>3.243014937249052</v>
       </c>
       <c r="AA4">
-        <v>-5.344701741907745E-13</v>
+        <v>-5.35381072673533E-13</v>
       </c>
       <c r="AB4">
-        <v>3.866729056542326</v>
+        <v>3.882607405871712</v>
       </c>
       <c r="AC4">
-        <v>1.348811853387962E-12</v>
+        <v>1.351780098308957E-12</v>
       </c>
       <c r="AD4">
-        <v>-2.123102370873716</v>
+        <v>-2.131816247339152</v>
       </c>
       <c r="AE4">
-        <v>-9.855560844507763E-14</v>
+        <v>-9.755545194117887E-14</v>
       </c>
       <c r="AF4">
-        <v>0.4053785506600061</v>
+        <v>0.4070404306115734</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -870,91 +870,91 @@
         <v>10086.99674117344</v>
       </c>
       <c r="D5">
-        <v>-1.468378400518468</v>
+        <v>-1.481152814083926</v>
       </c>
       <c r="E5">
-        <v>-6.478247651511967</v>
+        <v>-6.53460629493157</v>
       </c>
       <c r="F5">
-        <v>-0.810204520845706</v>
+        <v>-0.8172530361454627</v>
       </c>
       <c r="G5">
-        <v>-6.965922080663733</v>
+        <v>-7.026523332692319</v>
       </c>
       <c r="H5">
-        <v>-0.6728540919441426</v>
+        <v>-0.6787077032725782</v>
       </c>
       <c r="I5">
-        <v>1.064144118177158</v>
+        <v>1.073401825219188</v>
       </c>
       <c r="J5">
-        <v>-0.3493481315829061</v>
+        <v>-0.3523873464811804</v>
       </c>
       <c r="K5">
-        <v>1.5669285140119</v>
+        <v>1.580560281448978</v>
       </c>
       <c r="L5">
-        <v>-0.2359258573282182</v>
+        <v>-0.2379783354028293</v>
       </c>
       <c r="M5">
-        <v>3.592042280747066</v>
+        <v>3.623291878005286</v>
       </c>
       <c r="N5">
-        <v>0.01527967013425886</v>
+        <v>0.01541259828504497</v>
       </c>
       <c r="O5">
-        <v>-2.236117642378575</v>
+        <v>-2.255571137155312</v>
       </c>
       <c r="P5">
-        <v>-0.02676343930357738</v>
+        <v>-0.02699627250377864</v>
       </c>
       <c r="Q5">
-        <v>0.3088349462494405</v>
+        <v>0.3115217096378564</v>
       </c>
       <c r="R5">
         <v>3868.987338277233</v>
       </c>
       <c r="S5">
-        <v>-5.612616372746389E-13</v>
+        <v>-6.264377877287994E-13</v>
       </c>
       <c r="T5">
-        <v>-151.6735275080437</v>
+        <v>-2.445902578327875</v>
       </c>
       <c r="U5">
-        <v>-1.22400683800898E-12</v>
+        <v>5.76277159728961E-14</v>
       </c>
       <c r="V5">
-        <v>-154.2990631783649</v>
+        <v>-0.03628455442601533</v>
       </c>
       <c r="W5">
-        <v>2.248537369836055E-13</v>
+        <v>2.448588516043006E-13</v>
       </c>
       <c r="X5">
-        <v>-45.0957393065293</v>
+        <v>-2.550009615774395</v>
       </c>
       <c r="Y5">
-        <v>-9.179861597414763E-13</v>
+        <v>-4.221568634290119E-13</v>
       </c>
       <c r="Z5">
-        <v>-13.75208624883947</v>
+        <v>-0.6431124532406844</v>
       </c>
       <c r="AA5">
-        <v>-8.765724578276022E-14</v>
+        <v>1.683375548121543E-13</v>
       </c>
       <c r="AB5">
-        <v>-4.773636234195753</v>
+        <v>0.3151297979609696</v>
       </c>
       <c r="AC5">
-        <v>4.672726226891419E-13</v>
+        <v>2.852603642616663E-13</v>
       </c>
       <c r="AD5">
-        <v>-2.544962765292205</v>
+        <v>-0.6707605403502824</v>
       </c>
       <c r="AE5">
-        <v>1.312381801705288E-12</v>
+        <v>4.631960195166494E-13</v>
       </c>
       <c r="AF5">
-        <v>-0.6290909285741511</v>
+        <v>0.06082736972032415</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -968,91 +968,91 @@
         <v>10160.69712620911</v>
       </c>
       <c r="D6">
-        <v>-5.885356178758165</v>
+        <v>-5.979932161222514</v>
       </c>
       <c r="E6">
-        <v>2.430537196911949</v>
+        <v>2.469595231180759</v>
       </c>
       <c r="F6">
-        <v>-1.786849291529534</v>
+        <v>-1.815563446141293</v>
       </c>
       <c r="G6">
-        <v>-0.4501968753891721</v>
+        <v>-0.4574314097995081</v>
       </c>
       <c r="H6">
-        <v>-0.6002177504211343</v>
+        <v>-0.6098630771803719</v>
       </c>
       <c r="I6">
-        <v>-3.340175531433575</v>
+        <v>-3.393851192327113</v>
       </c>
       <c r="J6">
-        <v>-0.2223243848890625</v>
+        <v>-0.225897073862851</v>
       </c>
       <c r="K6">
-        <v>3.391958968973617</v>
+        <v>3.446466774826946</v>
       </c>
       <c r="L6">
-        <v>-0.1379674441913845</v>
+        <v>-0.1401845413705823</v>
       </c>
       <c r="M6">
-        <v>2.49347173169012</v>
+        <v>2.533541105846747</v>
       </c>
       <c r="N6">
-        <v>-0.01253289929119878</v>
+        <v>-0.01273429938111762</v>
       </c>
       <c r="O6">
-        <v>-2.12945560823621</v>
+        <v>-2.163675347899542</v>
       </c>
       <c r="P6">
-        <v>0.01720552216282617</v>
+        <v>0.01748200995947332</v>
       </c>
       <c r="Q6">
-        <v>0.2660522094574346</v>
+        <v>0.2703275920055748</v>
       </c>
       <c r="R6">
         <v>-65.15495286770917</v>
       </c>
       <c r="S6">
-        <v>6.995800346651404E-13</v>
+        <v>-3.513596103043487E-15</v>
       </c>
       <c r="T6">
-        <v>-1.86156742206555</v>
+        <v>0.01478783892788884</v>
       </c>
       <c r="U6">
-        <v>-9.69570051032105E-13</v>
+        <v>5.632789263651782E-15</v>
       </c>
       <c r="V6">
-        <v>-0.01064381918407512</v>
+        <v>9.358806713914725E-05</v>
       </c>
       <c r="W6">
-        <v>1.349063820378472E-12</v>
+        <v>-7.188814399379787E-15</v>
       </c>
       <c r="X6">
-        <v>-0.0001093483097323885</v>
+        <v>1.002732093762674E-06</v>
       </c>
       <c r="Y6">
-        <v>-8.286697816841414E-13</v>
+        <v>3.716164684055687E-15</v>
       </c>
       <c r="Z6">
-        <v>-1.343989007620402E-06</v>
+        <v>1.261122806124621E-08</v>
       </c>
       <c r="AA6">
-        <v>1.381745549908545E-12</v>
+        <v>-8.577072442790341E-15</v>
       </c>
       <c r="AB6">
-        <v>-1.826358344427081E-08</v>
+        <v>1.740315750593214E-10</v>
       </c>
       <c r="AC6">
-        <v>4.18300106686472E-13</v>
+        <v>-2.050588061313429E-15</v>
       </c>
       <c r="AD6">
-        <v>-2.639729641896818E-10</v>
+        <v>2.548503059621737E-12</v>
       </c>
       <c r="AE6">
-        <v>-6.315290763915076E-13</v>
+        <v>2.307341971825935E-15</v>
       </c>
       <c r="AF6">
-        <v>-6.550721765202965E-12</v>
+        <v>5.595107518087727E-14</v>
       </c>
     </row>
   </sheetData>
